--- a/Учет контрольных/ПиОА Original (Контрольная работа 3) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Original (Контрольная работа 3) DIV100.xlsx
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -611,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -637,19 +637,19 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
         <v>13</v>
@@ -721,7 +721,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
         <v>7.000000000000001</v>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
@@ -793,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -900,10 +900,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -923,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -949,13 +949,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
       <c r="F20" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1027,13 +1027,13 @@
         <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
         <v>16</v>
@@ -1053,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>7.000000000000001</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
         <v>12</v>
@@ -1261,13 +1261,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
         <v>16</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
         <v>8</v>
@@ -1339,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
         <v>15</v>
@@ -1368,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -1449,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
         <v>15</v>
@@ -1469,13 +1469,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
@@ -1521,13 +1521,13 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" t="n">
         <v>13</v>
@@ -1547,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
         <v>15</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -1651,13 +1651,13 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -1683,7 +1683,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -1706,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -1729,13 +1729,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
         <v>7.000000000000001</v>
@@ -1755,13 +1755,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>7.000000000000001</v>
@@ -1807,13 +1807,13 @@
         <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
         <v>16</v>
       </c>
       <c r="F53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
         <v>15</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1885,13 +1885,13 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
         <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
         <v>7.000000000000001</v>
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" t="n">
         <v>14</v>
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" t="n">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
         <v>14</v>
@@ -2041,13 +2041,13 @@
         <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" t="n">
         <v>16</v>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" t="n">
         <v>14</v>
@@ -2223,13 +2223,13 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
         <v>7.000000000000001</v>
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
         <v>7.000000000000001</v>
@@ -2275,13 +2275,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2301,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
@@ -2327,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
         <v>11</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" t="n">
         <v>13</v>
@@ -2457,13 +2457,13 @@
         <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
         <v>10</v>
@@ -2512,10 +2512,10 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -2535,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -2564,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
         <v>4</v>
       </c>
-      <c r="F82" t="n">
-        <v>5</v>
-      </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>6</v>
@@ -2587,13 +2587,13 @@
         <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G83" t="n">
         <v>16</v>
@@ -2613,13 +2613,13 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -2668,10 +2668,10 @@
         <v>6</v>
       </c>
       <c r="E86" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="F86" t="n">
         <v>6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>7.000000000000001</v>
       </c>
       <c r="G86" t="n">
         <v>7.000000000000001</v>
@@ -2697,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="F87" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
         <v>17</v>
@@ -2717,13 +2717,13 @@
         <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" t="n">
         <v>16</v>
@@ -2775,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -2818,10 +2818,10 @@
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -2847,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G94" t="n">
         <v>11</v>
@@ -2899,13 +2899,13 @@
         <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" t="n">
         <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G95" t="n">
         <v>11</v>
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
         <v>15</v>
@@ -2977,13 +2977,13 @@
         <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n">
         <v>11</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G98" t="n">
         <v>10</v>
@@ -3003,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -3029,13 +3029,13 @@
         <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" t="n">
         <v>11</v>
@@ -3061,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" t="n">
         <v>16</v>
@@ -3081,13 +3081,13 @@
         <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102" t="n">
         <v>14</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" t="n">
         <v>12</v>
@@ -3113,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="F103" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G103" t="n">
         <v>17</v>
@@ -3133,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E104" t="n">
         <v>14</v>
@@ -3159,13 +3159,13 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G105" t="n">
         <v>9</v>
@@ -3191,7 +3191,7 @@
         <v>16</v>
       </c>
       <c r="F106" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G106" t="n">
         <v>16</v>
@@ -3217,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -3237,13 +3237,13 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
         <v>6</v>
@@ -3266,7 +3266,7 @@
         <v>13</v>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
         <v>13</v>
@@ -3315,13 +3315,13 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="E111" t="n">
-        <v>8</v>
-      </c>
       <c r="F111" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
         <v>7.000000000000001</v>
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3373,7 +3373,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G113" t="n">
         <v>8</v>
@@ -3393,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E114" t="n">
         <v>7.000000000000001</v>
@@ -3422,10 +3422,10 @@
         <v>16</v>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
         <v>17</v>
@@ -3451,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G116" t="n">
         <v>16</v>
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
         <v>7.000000000000001</v>
@@ -3500,10 +3500,10 @@
         <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G118" t="n">
         <v>9</v>
@@ -3529,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G119" t="n">
         <v>11</v>
@@ -3552,7 +3552,7 @@
         <v>14</v>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
         <v>13</v>
@@ -3627,13 +3627,13 @@
         <v>13</v>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
       </c>
       <c r="F123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" t="n">
         <v>12</v>
@@ -3679,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -3705,7 +3705,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -3786,10 +3786,10 @@
         <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -3815,7 +3815,7 @@
         <v>15</v>
       </c>
       <c r="F130" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G130" t="n">
         <v>15</v>
@@ -3864,10 +3864,10 @@
         <v>14</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G132" t="n">
         <v>14</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
@@ -3913,13 +3913,13 @@
         <v>2</v>
       </c>
       <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" t="n">
-        <v>4</v>
-      </c>
       <c r="F134" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -3942,10 +3942,10 @@
         <v>16</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G135" t="n">
         <v>17</v>
@@ -3968,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G136" t="n">
         <v>7.000000000000001</v>
@@ -3991,10 +3991,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" t="n">
         <v>12</v>
@@ -4017,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="E139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
         <v>15</v>
@@ -4075,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -4101,7 +4101,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G141" t="n">
         <v>16</v>
@@ -4121,13 +4121,13 @@
         <v>9</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -4147,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
         <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -4199,13 +4199,13 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
         <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
@@ -4303,7 +4303,7 @@
         <v>14</v>
       </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E149" t="n">
         <v>15</v>
@@ -4329,13 +4329,13 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" t="n">
         <v>11</v>
       </c>
       <c r="F150" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="n">
         <v>11</v>
@@ -4358,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -4407,13 +4407,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -4433,13 +4433,13 @@
         <v>14</v>
       </c>
       <c r="D154" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E154" t="n">
         <v>14</v>
       </c>
       <c r="F154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -4485,10 +4485,10 @@
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F156" t="n">
         <v>15</v>
@@ -4511,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="D157" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E157" t="n">
         <v>15</v>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="n">
         <v>10</v>
@@ -4563,13 +4563,13 @@
         <v>5</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -4592,10 +4592,10 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G160" t="n">
         <v>11</v>
@@ -4641,13 +4641,13 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E162" t="n">
         <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G162" t="n">
         <v>7.000000000000001</v>
@@ -4670,10 +4670,10 @@
         <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G163" t="n">
         <v>10</v>
@@ -4719,13 +4719,13 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G165" t="n">
         <v>7.000000000000001</v>
@@ -4745,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G166" t="n">
         <v>11</v>
@@ -4768,16 +4768,16 @@
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G167" t="n">
         <v>7.000000000000001</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="F168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G168" t="n">
         <v>11</v>
@@ -4829,7 +4829,7 @@
         <v>16</v>
       </c>
       <c r="F169" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
         <v>15</v>
@@ -4849,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -4881,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="F171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G171" t="n">
         <v>9</v>
@@ -4901,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4927,10 +4927,10 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="n">
         <v>12</v>
@@ -4953,13 +4953,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -4982,10 +4982,10 @@
         <v>13</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175" t="n">
         <v>13</v>
@@ -5011,7 +5011,7 @@
         <v>13</v>
       </c>
       <c r="F176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="n">
         <v>12</v>
@@ -5031,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E177" t="n">
         <v>14</v>
@@ -5063,7 +5063,7 @@
         <v>16</v>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G178" t="n">
         <v>15</v>
@@ -5109,13 +5109,13 @@
         <v>14</v>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E180" t="n">
         <v>15</v>
       </c>
       <c r="F180" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G180" t="n">
         <v>15</v>
@@ -5164,10 +5164,10 @@
         <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="F183" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -5213,13 +5213,13 @@
         <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="n">
         <v>11</v>
       </c>
       <c r="F184" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -5271,7 +5271,7 @@
         <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G186" t="n">
         <v>15</v>
@@ -5291,13 +5291,13 @@
         <v>5</v>
       </c>
       <c r="D187" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G187" t="n">
         <v>9</v>
@@ -5323,7 +5323,7 @@
         <v>13</v>
       </c>
       <c r="F188" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G188" t="n">
         <v>12</v>
@@ -5369,13 +5369,13 @@
         <v>10</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
       </c>
       <c r="F190" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G190" t="n">
         <v>11</v>
@@ -5395,7 +5395,7 @@
         <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
         <v>12</v>
@@ -5447,10 +5447,10 @@
         <v>16</v>
       </c>
       <c r="D193" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5473,7 +5473,7 @@
         <v>15</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
@@ -5525,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E196" t="n">
         <v>8</v>
@@ -5554,10 +5554,10 @@
         <v>11</v>
       </c>
       <c r="E197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
         <v>11</v>
@@ -5583,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="F198" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G198" t="n">
         <v>17</v>
@@ -5609,7 +5609,7 @@
         <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G199" t="n">
         <v>7.000000000000001</v>
@@ -5629,13 +5629,13 @@
         <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E200" t="n">
         <v>12</v>
       </c>
       <c r="F200" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G200" t="n">
         <v>11</v>
@@ -5661,7 +5661,7 @@
         <v>16</v>
       </c>
       <c r="F201" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G201" t="n">
         <v>15</v>
@@ -5684,7 +5684,7 @@
         <v>15</v>
       </c>
       <c r="E202" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F202" t="n">
         <v>15</v>
@@ -5710,10 +5710,10 @@
         <v>9</v>
       </c>
       <c r="E203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5765,7 +5765,7 @@
         <v>6</v>
       </c>
       <c r="F205" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -5811,13 +5811,13 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E207" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F207" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G207" t="n">
         <v>9</v>
@@ -5843,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="F208" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G208" t="n">
         <v>10</v>
@@ -5863,10 +5863,10 @@
         <v>16</v>
       </c>
       <c r="D209" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E209" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5895,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="F210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G210" t="n">
         <v>15</v>
@@ -5912,16 +5912,16 @@
         <v>14</v>
       </c>
       <c r="C211" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E211" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G211" t="n">
         <v>10</v>
@@ -5944,10 +5944,10 @@
         <v>12</v>
       </c>
       <c r="E212" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G212" t="n">
         <v>11</v>
@@ -5996,10 +5996,10 @@
         <v>11</v>
       </c>
       <c r="E214" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G214" t="n">
         <v>12</v>
@@ -6019,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E215" t="n">
         <v>14</v>
@@ -6045,13 +6045,13 @@
         <v>10</v>
       </c>
       <c r="D216" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
       </c>
       <c r="F216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G216" t="n">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E218" t="n">
         <v>3</v>
@@ -6123,10 +6123,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D219" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E219" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F219" t="n">
         <v>15</v>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="F220" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G220" t="n">
         <v>16</v>
@@ -6175,10 +6175,10 @@
         <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F221" t="n">
         <v>15</v>
@@ -6201,13 +6201,13 @@
         <v>13</v>
       </c>
       <c r="D222" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E222" t="n">
         <v>12</v>
       </c>
       <c r="F222" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G222" t="n">
         <v>11</v>
@@ -6279,13 +6279,13 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
       </c>
       <c r="F225" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G225" t="n">
         <v>7.000000000000001</v>
@@ -6311,7 +6311,7 @@
         <v>13</v>
       </c>
       <c r="F226" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G226" t="n">
         <v>13</v>
@@ -6331,13 +6331,13 @@
         <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G227" t="n">
         <v>10</v>
@@ -6357,7 +6357,7 @@
         <v>14</v>
       </c>
       <c r="D228" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -6383,10 +6383,10 @@
         <v>13</v>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E229" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F229" t="n">
         <v>15</v>
@@ -6412,10 +6412,10 @@
         <v>10</v>
       </c>
       <c r="E230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -6435,13 +6435,13 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G231" t="n">
         <v>8</v>
@@ -6490,10 +6490,10 @@
         <v>14</v>
       </c>
       <c r="E233" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F233" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G233" t="n">
         <v>13</v>
@@ -6516,10 +6516,10 @@
         <v>6</v>
       </c>
       <c r="E234" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F234" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G234" t="n">
         <v>8</v>
@@ -6568,10 +6568,10 @@
         <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -6597,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="F237" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G237" t="n">
         <v>13</v>
@@ -6623,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -6672,10 +6672,10 @@
         <v>3</v>
       </c>
       <c r="E240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -6721,13 +6721,13 @@
         <v>12</v>
       </c>
       <c r="D242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E242" t="n">
         <v>12</v>
       </c>
       <c r="F242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G242" t="n">
         <v>11</v>
@@ -6747,13 +6747,13 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G243" t="n">
         <v>8</v>
@@ -6805,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="F245" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G245" t="n">
         <v>12</v>
@@ -6831,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="F246" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
         <v>11</v>
@@ -6877,13 +6877,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D248" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
       </c>
       <c r="F248" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G248" t="n">
         <v>9</v>
@@ -6903,7 +6903,7 @@
         <v>14</v>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E249" t="n">
         <v>15</v>
@@ -6935,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="F250" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G250" t="n">
         <v>16</v>
@@ -6981,13 +6981,13 @@
         <v>15</v>
       </c>
       <c r="D252" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
       </c>
       <c r="F252" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G252" t="n">
         <v>15</v>
@@ -7007,13 +7007,13 @@
         <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E253" t="n">
         <v>8</v>
       </c>
       <c r="F253" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G253" t="n">
         <v>9</v>
@@ -7033,13 +7033,13 @@
         <v>8</v>
       </c>
       <c r="D254" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
       </c>
       <c r="F254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G254" t="n">
         <v>10</v>
@@ -7059,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -7114,7 +7114,7 @@
         <v>15</v>
       </c>
       <c r="E257" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7143,7 +7143,7 @@
         <v>13</v>
       </c>
       <c r="F258" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G258" t="n">
         <v>13</v>
@@ -7166,10 +7166,10 @@
         <v>8</v>
       </c>
       <c r="E259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G259" t="n">
         <v>8</v>
@@ -7195,7 +7195,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G260" t="n">
         <v>14</v>
@@ -7221,7 +7221,7 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G261" t="n">
         <v>8</v>
@@ -7241,13 +7241,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E262" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F262" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G262" t="n">
         <v>7.000000000000001</v>
@@ -7267,13 +7267,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D263" t="n">
+        <v>5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6</v>
+      </c>
+      <c r="F263" t="n">
         <v>4</v>
-      </c>
-      <c r="E263" t="n">
-        <v>5</v>
-      </c>
-      <c r="F263" t="n">
-        <v>5</v>
       </c>
       <c r="G263" t="n">
         <v>6</v>
@@ -7293,13 +7293,13 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
       </c>
       <c r="F264" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G264" t="n">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="F265" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -7377,7 +7377,7 @@
         <v>11</v>
       </c>
       <c r="F267" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G267" t="n">
         <v>11</v>
@@ -7429,7 +7429,7 @@
         <v>14</v>
       </c>
       <c r="F269" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G269" t="n">
         <v>12</v>
@@ -7449,13 +7449,13 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E270" t="n">
         <v>3</v>
       </c>
       <c r="F270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
         <v>4</v>
@@ -7481,7 +7481,7 @@
         <v>14</v>
       </c>
       <c r="F271" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G271" t="n">
         <v>13</v>
@@ -7501,13 +7501,13 @@
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E272" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F272" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G272" t="n">
         <v>11</v>
@@ -7530,10 +7530,10 @@
         <v>15</v>
       </c>
       <c r="E273" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F273" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G273" t="n">
         <v>16</v>
@@ -7553,13 +7553,13 @@
         <v>10</v>
       </c>
       <c r="D274" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E274" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F274" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G274" t="n">
         <v>11</v>
@@ -7605,13 +7605,13 @@
         <v>11</v>
       </c>
       <c r="D276" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E276" t="n">
         <v>12</v>
       </c>
       <c r="F276" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G276" t="n">
         <v>11</v>
@@ -7631,7 +7631,7 @@
         <v>13</v>
       </c>
       <c r="D277" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -7683,7 +7683,7 @@
         <v>13</v>
       </c>
       <c r="D279" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E279" t="n">
         <v>14</v>
@@ -7712,10 +7712,10 @@
         <v>16</v>
       </c>
       <c r="E280" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F280" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G280" t="n">
         <v>18</v>
@@ -7735,10 +7735,10 @@
         <v>13</v>
       </c>
       <c r="D281" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E281" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F281" t="n">
         <v>15</v>
@@ -7842,10 +7842,10 @@
         <v>16</v>
       </c>
       <c r="E285" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F285" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G285" t="n">
         <v>17</v>
@@ -7865,13 +7865,13 @@
         <v>13</v>
       </c>
       <c r="D286" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
       </c>
       <c r="F286" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G286" t="n">
         <v>10</v>
@@ -7891,13 +7891,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E287" t="n">
         <v>12</v>
       </c>
       <c r="F287" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G287" t="n">
         <v>11</v>
@@ -7917,13 +7917,13 @@
         <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E288" t="n">
         <v>12</v>
       </c>
       <c r="F288" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G288" t="n">
         <v>11</v>
@@ -7946,10 +7946,10 @@
         <v>16</v>
       </c>
       <c r="E289" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F289" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G289" t="n">
         <v>17</v>
@@ -7972,10 +7972,10 @@
         <v>15</v>
       </c>
       <c r="E290" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F290" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G290" t="n">
         <v>14</v>
@@ -7995,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F291" t="n">
         <v>1</v>
@@ -8021,13 +8021,13 @@
         <v>15</v>
       </c>
       <c r="D292" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E292" t="n">
         <v>16</v>
       </c>
       <c r="F292" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G292" t="n">
         <v>15</v>
@@ -8050,10 +8050,10 @@
         <v>14</v>
       </c>
       <c r="E293" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F293" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G293" t="n">
         <v>10</v>
@@ -8079,7 +8079,7 @@
         <v>11</v>
       </c>
       <c r="F294" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G294" t="n">
         <v>10</v>
@@ -8128,7 +8128,7 @@
         <v>15</v>
       </c>
       <c r="E296" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F296" t="n">
         <v>15</v>
@@ -8151,7 +8151,7 @@
         <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E297" t="n">
         <v>14</v>
@@ -8177,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="D298" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -8235,7 +8235,7 @@
         <v>11</v>
       </c>
       <c r="F300" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G300" t="n">
         <v>10</v>
@@ -8255,7 +8255,7 @@
         <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -8287,7 +8287,7 @@
         <v>16</v>
       </c>
       <c r="F302" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G302" t="n">
         <v>16</v>
@@ -8333,7 +8333,7 @@
         <v>13</v>
       </c>
       <c r="D304" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E304" t="n">
         <v>14</v>
@@ -8359,13 +8359,13 @@
         <v>3</v>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
       </c>
       <c r="F305" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G305" t="n">
         <v>4</v>
@@ -8417,7 +8417,7 @@
         <v>15</v>
       </c>
       <c r="F307" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G307" t="n">
         <v>13</v>
@@ -8437,13 +8437,13 @@
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G308" t="n">
         <v>8</v>
@@ -8463,13 +8463,13 @@
         <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E309" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F309" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G309" t="n">
         <v>11</v>
@@ -8495,7 +8495,7 @@
         <v>16</v>
       </c>
       <c r="F310" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G310" t="n">
         <v>16</v>
@@ -8515,13 +8515,13 @@
         <v>13</v>
       </c>
       <c r="D311" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E311" t="n">
         <v>14</v>
       </c>
       <c r="F311" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G311" t="n">
         <v>13</v>
@@ -8541,13 +8541,13 @@
         <v>12</v>
       </c>
       <c r="D312" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E312" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F312" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G312" t="n">
         <v>14</v>
@@ -8567,13 +8567,13 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E313" t="n">
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G313" t="n">
         <v>7.000000000000001</v>
@@ -8599,7 +8599,7 @@
         <v>10</v>
       </c>
       <c r="F314" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G314" t="n">
         <v>10</v>
@@ -8625,7 +8625,7 @@
         <v>6</v>
       </c>
       <c r="F315" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G315" t="n">
         <v>6</v>
@@ -8645,13 +8645,13 @@
         <v>15</v>
       </c>
       <c r="D316" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E316" t="n">
         <v>14</v>
       </c>
       <c r="F316" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G316" t="n">
         <v>13</v>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
       <c r="F317" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G317" t="n">
         <v>12</v>
@@ -8700,10 +8700,10 @@
         <v>14</v>
       </c>
       <c r="E318" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F318" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G318" t="n">
         <v>14</v>
@@ -8723,13 +8723,13 @@
         <v>3</v>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E319" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G319" t="n">
         <v>6</v>
@@ -8749,16 +8749,16 @@
         <v>14</v>
       </c>
       <c r="D320" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
       </c>
       <c r="F320" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G320" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H320" t="n">
         <v>16</v>
@@ -8801,10 +8801,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E322" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F322" t="n">
         <v>12</v>
@@ -8833,7 +8833,7 @@
         <v>16</v>
       </c>
       <c r="F323" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G323" t="n">
         <v>14</v>
@@ -8853,13 +8853,13 @@
         <v>13</v>
       </c>
       <c r="D324" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
       </c>
       <c r="F324" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G324" t="n">
         <v>11</v>
@@ -8879,13 +8879,13 @@
         <v>10</v>
       </c>
       <c r="D325" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E325" t="n">
         <v>6</v>
       </c>
       <c r="F325" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G325" t="n">
         <v>7.000000000000001</v>
@@ -8908,7 +8908,7 @@
         <v>15</v>
       </c>
       <c r="E326" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F326" t="n">
         <v>15</v>
@@ -8963,7 +8963,7 @@
         <v>11</v>
       </c>
       <c r="F328" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G328" t="n">
         <v>10</v>
@@ -8989,7 +8989,7 @@
         <v>16</v>
       </c>
       <c r="F329" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G329" t="n">
         <v>16</v>
@@ -9012,7 +9012,7 @@
         <v>14</v>
       </c>
       <c r="E330" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F330" t="n">
         <v>15</v>
@@ -9064,7 +9064,7 @@
         <v>15</v>
       </c>
       <c r="E332" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F332" t="n">
         <v>15</v>
@@ -9145,7 +9145,7 @@
         <v>14</v>
       </c>
       <c r="F335" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G335" t="n">
         <v>13</v>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" t="n">
         <v>1</v>
@@ -9217,13 +9217,13 @@
         <v>15</v>
       </c>
       <c r="D338" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
       </c>
       <c r="F338" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G338" t="n">
         <v>13</v>
@@ -9321,10 +9321,10 @@
         <v>13</v>
       </c>
       <c r="D342" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E342" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F342" t="n">
         <v>13</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -9373,13 +9373,13 @@
         <v>13</v>
       </c>
       <c r="D344" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E344" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F344" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G344" t="n">
         <v>15</v>
@@ -9431,7 +9431,7 @@
         <v>16</v>
       </c>
       <c r="F346" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G346" t="n">
         <v>16</v>
@@ -9457,7 +9457,7 @@
         <v>13</v>
       </c>
       <c r="F347" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G347" t="n">
         <v>12</v>
@@ -9480,7 +9480,7 @@
         <v>15</v>
       </c>
       <c r="E348" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F348" t="n">
         <v>15</v>
@@ -9509,7 +9509,7 @@
         <v>11</v>
       </c>
       <c r="F349" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G349" t="n">
         <v>9</v>
@@ -9535,7 +9535,7 @@
         <v>11</v>
       </c>
       <c r="F350" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G350" t="n">
         <v>11</v>
@@ -9555,7 +9555,7 @@
         <v>13</v>
       </c>
       <c r="D351" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -9581,13 +9581,13 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E352" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F352" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G352" t="n">
         <v>11</v>
@@ -9610,7 +9610,7 @@
         <v>14</v>
       </c>
       <c r="E353" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F353" t="n">
         <v>15</v>
@@ -9639,7 +9639,7 @@
         <v>16</v>
       </c>
       <c r="F354" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G354" t="n">
         <v>15</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
@@ -9685,13 +9685,13 @@
         <v>11</v>
       </c>
       <c r="D356" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E356" t="n">
         <v>14</v>
       </c>
       <c r="F356" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G356" t="n">
         <v>13</v>
@@ -9711,13 +9711,13 @@
         <v>11</v>
       </c>
       <c r="D357" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
       </c>
       <c r="F357" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G357" t="n">
         <v>12</v>
@@ -9743,7 +9743,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G358" t="n">
         <v>7.000000000000001</v>
@@ -9792,10 +9792,10 @@
         <v>11</v>
       </c>
       <c r="E360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G360" t="n">
         <v>11</v>
@@ -9821,7 +9821,7 @@
         <v>16</v>
       </c>
       <c r="F361" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G361" t="n">
         <v>15</v>
@@ -9841,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -9873,7 +9873,7 @@
         <v>15</v>
       </c>
       <c r="F363" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G363" t="n">
         <v>13</v>
@@ -9916,10 +9916,10 @@
         <v>2</v>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E365" t="n">
         <v>2</v>
@@ -9945,16 +9945,16 @@
         <v>2</v>
       </c>
       <c r="D366" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F366" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G366" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H366" t="n">
         <v>4</v>
@@ -9974,10 +9974,10 @@
         <v>14</v>
       </c>
       <c r="E367" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F367" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G367" t="n">
         <v>12</v>
@@ -9997,13 +9997,13 @@
         <v>9</v>
       </c>
       <c r="D368" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
       </c>
       <c r="F368" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G368" t="n">
         <v>11</v>
@@ -10023,7 +10023,7 @@
         <v>4</v>
       </c>
       <c r="D369" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E369" t="n">
         <v>3</v>
@@ -10052,10 +10052,10 @@
         <v>13</v>
       </c>
       <c r="E370" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F370" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G370" t="n">
         <v>12</v>
@@ -10081,7 +10081,7 @@
         <v>12</v>
       </c>
       <c r="F371" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G371" t="n">
         <v>9</v>
@@ -10101,13 +10101,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E372" t="n">
         <v>11</v>
       </c>
       <c r="F372" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G372" t="n">
         <v>9</v>
@@ -10127,13 +10127,13 @@
         <v>12</v>
       </c>
       <c r="D373" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E373" t="n">
         <v>12</v>
       </c>
       <c r="F373" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G373" t="n">
         <v>10</v>
@@ -10179,7 +10179,7 @@
         <v>13</v>
       </c>
       <c r="D375" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E375" t="n">
         <v>12</v>
@@ -10205,7 +10205,7 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E376" t="n">
         <v>11</v>
@@ -10234,10 +10234,10 @@
         <v>4</v>
       </c>
       <c r="E377" t="n">
+        <v>5</v>
+      </c>
+      <c r="F377" t="n">
         <v>4</v>
-      </c>
-      <c r="F377" t="n">
-        <v>5</v>
       </c>
       <c r="G377" t="n">
         <v>6</v>
@@ -10283,13 +10283,13 @@
         <v>12</v>
       </c>
       <c r="D379" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G379" t="n">
         <v>9</v>
@@ -10315,7 +10315,7 @@
         <v>11</v>
       </c>
       <c r="F380" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G380" t="n">
         <v>10</v>
@@ -10341,7 +10341,7 @@
         <v>16</v>
       </c>
       <c r="F381" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G381" t="n">
         <v>15</v>
@@ -10364,10 +10364,10 @@
         <v>14</v>
       </c>
       <c r="E382" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F382" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G382" t="n">
         <v>12</v>
@@ -10387,13 +10387,13 @@
         <v>16</v>
       </c>
       <c r="D383" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
       </c>
       <c r="F383" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G383" t="n">
         <v>15</v>
@@ -10419,7 +10419,7 @@
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G384" t="n">
         <v>9</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
       </c>
       <c r="F386" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10494,10 +10494,10 @@
         <v>11</v>
       </c>
       <c r="E387" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G388" t="n">
         <v>9</v>
@@ -10543,13 +10543,13 @@
         <v>12</v>
       </c>
       <c r="D389" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E389" t="n">
         <v>11</v>
       </c>
       <c r="F389" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G389" t="n">
         <v>11</v>
@@ -10572,7 +10572,7 @@
         <v>9</v>
       </c>
       <c r="E390" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F390" t="n">
         <v>9</v>
@@ -10595,13 +10595,13 @@
         <v>13</v>
       </c>
       <c r="D391" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
       </c>
       <c r="F391" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -10621,7 +10621,7 @@
         <v>12</v>
       </c>
       <c r="D392" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10647,13 +10647,13 @@
         <v>4</v>
       </c>
       <c r="D393" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
       </c>
       <c r="F393" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G393" t="n">
         <v>6</v>
@@ -10673,7 +10673,7 @@
         <v>13</v>
       </c>
       <c r="D394" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -10705,7 +10705,7 @@
         <v>11</v>
       </c>
       <c r="F395" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G395" t="n">
         <v>11</v>
@@ -10728,7 +10728,7 @@
         <v>11</v>
       </c>
       <c r="E396" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F396" t="n">
         <v>12</v>
@@ -10751,13 +10751,13 @@
         <v>11</v>
       </c>
       <c r="D397" t="n">
+        <v>5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>5</v>
+      </c>
+      <c r="F397" t="n">
         <v>4</v>
-      </c>
-      <c r="E397" t="n">
-        <v>6</v>
-      </c>
-      <c r="F397" t="n">
-        <v>5</v>
       </c>
       <c r="G397" t="n">
         <v>7.000000000000001</v>
@@ -10780,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F398" t="n">
         <v>1</v>
@@ -10803,13 +10803,13 @@
         <v>12</v>
       </c>
       <c r="D399" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E399" t="n">
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10829,7 +10829,7 @@
         <v>8</v>
       </c>
       <c r="D400" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -10861,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="F401" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G401" t="n">
         <v>10</v>
@@ -10881,13 +10881,13 @@
         <v>11</v>
       </c>
       <c r="D402" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E402" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="F402" t="n">
         <v>6</v>
-      </c>
-      <c r="F402" t="n">
-        <v>7.000000000000001</v>
       </c>
       <c r="G402" t="n">
         <v>7.000000000000001</v>
@@ -10907,7 +10907,7 @@
         <v>13</v>
       </c>
       <c r="D403" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E403" t="n">
         <v>14</v>
@@ -10933,13 +10933,13 @@
         <v>16</v>
       </c>
       <c r="D404" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
       </c>
       <c r="F404" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G404" t="n">
         <v>13</v>
@@ -10985,13 +10985,13 @@
         <v>14</v>
       </c>
       <c r="D406" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E406" t="n">
         <v>14</v>
       </c>
       <c r="F406" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G406" t="n">
         <v>14</v>
@@ -11011,13 +11011,13 @@
         <v>13</v>
       </c>
       <c r="D407" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
       </c>
       <c r="F407" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G407" t="n">
         <v>15</v>
@@ -11043,7 +11043,7 @@
         <v>11</v>
       </c>
       <c r="F408" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G408" t="n">
         <v>11</v>
@@ -11066,7 +11066,7 @@
         <v>8</v>
       </c>
       <c r="E409" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F409" t="n">
         <v>9</v>
@@ -11095,7 +11095,7 @@
         <v>16</v>
       </c>
       <c r="F410" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G410" t="n">
         <v>16</v>
@@ -11118,7 +11118,7 @@
         <v>11</v>
       </c>
       <c r="E411" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F411" t="n">
         <v>12</v>
@@ -11147,7 +11147,7 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11173,7 +11173,7 @@
         <v>8</v>
       </c>
       <c r="F413" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G413" t="n">
         <v>8</v>
@@ -11196,7 +11196,7 @@
         <v>12</v>
       </c>
       <c r="E414" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F414" t="n">
         <v>12</v>
@@ -11219,10 +11219,10 @@
         <v>3</v>
       </c>
       <c r="D415" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E415" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F415" t="n">
         <v>13</v>
@@ -11251,7 +11251,7 @@
         <v>17</v>
       </c>
       <c r="F416" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G416" t="n">
         <v>17</v>
@@ -11303,7 +11303,7 @@
         <v>10</v>
       </c>
       <c r="F418" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G418" t="n">
         <v>9</v>
@@ -11326,10 +11326,10 @@
         <v>5</v>
       </c>
       <c r="E419" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G419" t="n">
         <v>8</v>
@@ -11355,7 +11355,7 @@
         <v>16</v>
       </c>
       <c r="F420" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G420" t="n">
         <v>15</v>
@@ -11375,13 +11375,13 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G421" t="n">
         <v>11</v>
@@ -11433,7 +11433,7 @@
         <v>11</v>
       </c>
       <c r="F423" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G423" t="n">
         <v>11</v>
@@ -11453,10 +11453,10 @@
         <v>14</v>
       </c>
       <c r="D424" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E424" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F424" t="n">
         <v>15</v>
@@ -11537,7 +11537,7 @@
         <v>16</v>
       </c>
       <c r="F427" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G427" t="n">
         <v>15</v>
@@ -11609,13 +11609,13 @@
         <v>1</v>
       </c>
       <c r="D430" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E430" t="n">
         <v>2</v>
       </c>
       <c r="F430" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -11635,13 +11635,13 @@
         <v>13</v>
       </c>
       <c r="D431" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
       </c>
       <c r="F431" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G431" t="n">
         <v>14</v>
@@ -11667,7 +11667,7 @@
         <v>12</v>
       </c>
       <c r="F432" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G432" t="n">
         <v>11</v>
@@ -11693,7 +11693,7 @@
         <v>14</v>
       </c>
       <c r="F433" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G433" t="n">
         <v>12</v>
@@ -11713,7 +11713,7 @@
         <v>15</v>
       </c>
       <c r="D434" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E434" t="n">
         <v>12</v>
@@ -11745,7 +11745,7 @@
         <v>11</v>
       </c>
       <c r="F435" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G435" t="n">
         <v>10</v>
@@ -11765,10 +11765,10 @@
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E436" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F436" t="n">
         <v>13</v>
@@ -11791,13 +11791,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D437" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E437" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F437" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G437" t="n">
         <v>6</v>
@@ -11846,10 +11846,10 @@
         <v>14</v>
       </c>
       <c r="E439" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F439" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G439" t="n">
         <v>13</v>
@@ -11869,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="D440" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E440" t="n">
         <v>8</v>
       </c>
       <c r="F440" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G440" t="n">
         <v>7.000000000000001</v>
@@ -11898,10 +11898,10 @@
         <v>10</v>
       </c>
       <c r="E441" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F441" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G441" t="n">
         <v>10</v>
@@ -11927,7 +11927,7 @@
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G442" t="n">
         <v>8</v>
@@ -11976,10 +11976,10 @@
         <v>14</v>
       </c>
       <c r="E444" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F444" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G444" t="n">
         <v>14</v>
@@ -12031,7 +12031,7 @@
         <v>16</v>
       </c>
       <c r="F446" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G446" t="n">
         <v>16</v>
@@ -12051,13 +12051,13 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E447" t="n">
         <v>11</v>
       </c>
       <c r="F447" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G447" t="n">
         <v>11</v>
@@ -12077,13 +12077,13 @@
         <v>14</v>
       </c>
       <c r="D448" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E448" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F448" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G448" t="n">
         <v>13</v>
@@ -12103,7 +12103,7 @@
         <v>14</v>
       </c>
       <c r="D449" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E449" t="n">
         <v>14</v>
@@ -12141,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -12161,7 +12161,7 @@
         <v>14</v>
       </c>
       <c r="F451" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G451" t="n">
         <v>13</v>
@@ -12184,10 +12184,10 @@
         <v>11</v>
       </c>
       <c r="E452" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F452" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G452" t="n">
         <v>10</v>
@@ -12207,13 +12207,13 @@
         <v>12</v>
       </c>
       <c r="D453" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
       </c>
       <c r="F453" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G453" t="n">
         <v>12</v>
@@ -12239,7 +12239,7 @@
         <v>15</v>
       </c>
       <c r="F454" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G454" t="n">
         <v>14</v>
@@ -12262,7 +12262,7 @@
         <v>15</v>
       </c>
       <c r="E455" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F455" t="n">
         <v>15</v>
@@ -12291,13 +12291,13 @@
         <v>10</v>
       </c>
       <c r="F456" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G456" t="n">
         <v>9</v>
       </c>
       <c r="H456" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -12311,13 +12311,13 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
       </c>
       <c r="F457" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G457" t="n">
         <v>9</v>
@@ -12340,7 +12340,7 @@
         <v>15</v>
       </c>
       <c r="E458" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F458" t="n">
         <v>15</v>
@@ -12392,10 +12392,10 @@
         <v>6</v>
       </c>
       <c r="E460" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F460" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G460" t="n">
         <v>7.000000000000001</v>
@@ -12421,7 +12421,7 @@
         <v>16</v>
       </c>
       <c r="F461" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G461" t="n">
         <v>16</v>
@@ -12467,13 +12467,13 @@
         <v>13</v>
       </c>
       <c r="D463" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E463" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F463" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G463" t="n">
         <v>11</v>
@@ -12499,7 +12499,7 @@
         <v>14</v>
       </c>
       <c r="F464" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G464" t="n">
         <v>12</v>
@@ -12519,13 +12519,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D465" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
       </c>
       <c r="F465" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G465" t="n">
         <v>9</v>
@@ -12545,13 +12545,13 @@
         <v>10</v>
       </c>
       <c r="D466" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
       </c>
       <c r="F466" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G466" t="n">
         <v>9</v>
@@ -12571,13 +12571,13 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
       </c>
       <c r="F467" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G467" t="n">
         <v>5</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E468" t="n">
         <v>2</v>
@@ -12681,7 +12681,7 @@
         <v>11</v>
       </c>
       <c r="F471" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G471" t="n">
         <v>10</v>
@@ -12707,7 +12707,7 @@
         <v>13</v>
       </c>
       <c r="F472" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G472" t="n">
         <v>11</v>
@@ -12759,7 +12759,7 @@
         <v>14</v>
       </c>
       <c r="F474" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G474" t="n">
         <v>12</v>
@@ -12782,10 +12782,10 @@
         <v>14</v>
       </c>
       <c r="E475" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F475" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G475" t="n">
         <v>12</v>
@@ -12811,7 +12811,7 @@
         <v>13</v>
       </c>
       <c r="F476" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G476" t="n">
         <v>12</v>
@@ -12837,7 +12837,7 @@
         <v>16</v>
       </c>
       <c r="F477" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G477" t="n">
         <v>15</v>
@@ -12889,7 +12889,7 @@
         <v>8</v>
       </c>
       <c r="F479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G479" t="n">
         <v>9</v>
@@ -12964,7 +12964,7 @@
         <v>5</v>
       </c>
       <c r="E482" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F482" t="n">
         <v>6</v>
@@ -12987,10 +12987,10 @@
         <v>10</v>
       </c>
       <c r="D483" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E483" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F483" t="n">
         <v>15</v>
@@ -13016,10 +13016,10 @@
         <v>14</v>
       </c>
       <c r="E484" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F484" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G484" t="n">
         <v>13</v>
@@ -13045,7 +13045,7 @@
         <v>16</v>
       </c>
       <c r="F485" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G485" t="n">
         <v>16</v>
@@ -13065,13 +13065,13 @@
         <v>16</v>
       </c>
       <c r="D486" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
       </c>
       <c r="F486" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G486" t="n">
         <v>15</v>
@@ -13091,13 +13091,13 @@
         <v>10</v>
       </c>
       <c r="D487" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E487" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F487" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G487" t="n">
         <v>9</v>
@@ -13117,13 +13117,13 @@
         <v>10</v>
       </c>
       <c r="D488" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
       </c>
       <c r="F488" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G488" t="n">
         <v>10</v>
@@ -13143,7 +13143,7 @@
         <v>14</v>
       </c>
       <c r="D489" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E489" t="n">
         <v>14</v>
@@ -13195,13 +13195,13 @@
         <v>9</v>
       </c>
       <c r="D491" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E491" t="n">
         <v>11</v>
       </c>
       <c r="F491" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G491" t="n">
         <v>11</v>
@@ -13221,13 +13221,13 @@
         <v>0</v>
       </c>
       <c r="D492" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E492" t="n">
         <v>3</v>
       </c>
       <c r="F492" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G492" t="n">
         <v>5</v>
@@ -13247,13 +13247,13 @@
         <v>12</v>
       </c>
       <c r="D493" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E493" t="n">
         <v>9</v>
       </c>
       <c r="F493" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13302,10 +13302,10 @@
         <v>14</v>
       </c>
       <c r="E495" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F495" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G495" t="n">
         <v>10</v>
@@ -13331,7 +13331,7 @@
         <v>16</v>
       </c>
       <c r="F496" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G496" t="n">
         <v>16</v>
@@ -13354,7 +13354,7 @@
         <v>14</v>
       </c>
       <c r="E497" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F497" t="n">
         <v>15</v>
@@ -13403,13 +13403,13 @@
         <v>5</v>
       </c>
       <c r="D499" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E499" t="n">
         <v>6</v>
       </c>
       <c r="F499" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G499" t="n">
         <v>6</v>
@@ -13487,7 +13487,7 @@
         <v>14</v>
       </c>
       <c r="F502" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G502" t="n">
         <v>12</v>
@@ -13510,10 +13510,10 @@
         <v>5</v>
       </c>
       <c r="E503" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F503" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G503" t="n">
         <v>5</v>
@@ -13611,7 +13611,7 @@
         <v>14</v>
       </c>
       <c r="D507" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E507" t="n">
         <v>12</v>
@@ -13637,13 +13637,13 @@
         <v>4</v>
       </c>
       <c r="D508" t="n">
+        <v>5</v>
+      </c>
+      <c r="E508" t="n">
+        <v>2</v>
+      </c>
+      <c r="F508" t="n">
         <v>6</v>
-      </c>
-      <c r="E508" t="n">
-        <v>4</v>
-      </c>
-      <c r="F508" t="n">
-        <v>5</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -13663,13 +13663,13 @@
         <v>9</v>
       </c>
       <c r="D509" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E509" t="n">
         <v>12</v>
       </c>
       <c r="F509" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G509" t="n">
         <v>12</v>
@@ -13689,13 +13689,13 @@
         <v>10</v>
       </c>
       <c r="D510" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E510" t="n">
         <v>11</v>
       </c>
       <c r="F510" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G510" t="n">
         <v>10</v>
@@ -13718,7 +13718,7 @@
         <v>11</v>
       </c>
       <c r="E511" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F511" t="n">
         <v>12</v>
@@ -13744,7 +13744,7 @@
         <v>13</v>
       </c>
       <c r="E512" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F512" t="n">
         <v>13</v>
@@ -13767,13 +13767,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D513" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E513" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F513" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G513" t="n">
         <v>9</v>
@@ -13796,10 +13796,10 @@
         <v>9</v>
       </c>
       <c r="E514" t="n">
+        <v>8</v>
+      </c>
+      <c r="F514" t="n">
         <v>7.000000000000001</v>
-      </c>
-      <c r="F514" t="n">
-        <v>11</v>
       </c>
       <c r="G514" t="n">
         <v>8</v>
@@ -13825,7 +13825,7 @@
         <v>16</v>
       </c>
       <c r="F515" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G515" t="n">
         <v>17</v>
@@ -13845,10 +13845,10 @@
         <v>16</v>
       </c>
       <c r="D516" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E516" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F516" t="n">
         <v>15</v>
@@ -13877,7 +13877,7 @@
         <v>4</v>
       </c>
       <c r="F517" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G517" t="n">
         <v>6</v>
@@ -13897,13 +13897,13 @@
         <v>5</v>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F518" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G518" t="n">
         <v>4</v>
@@ -13929,7 +13929,7 @@
         <v>10</v>
       </c>
       <c r="F519" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G519" t="n">
         <v>9</v>
@@ -13949,13 +13949,13 @@
         <v>15</v>
       </c>
       <c r="D520" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
       </c>
       <c r="F520" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G520" t="n">
         <v>14</v>
@@ -13981,7 +13981,7 @@
         <v>12</v>
       </c>
       <c r="F521" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G521" t="n">
         <v>11</v>
@@ -14056,10 +14056,10 @@
         <v>12</v>
       </c>
       <c r="E524" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F524" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G524" t="n">
         <v>10</v>
@@ -14082,7 +14082,7 @@
         <v>15</v>
       </c>
       <c r="E525" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F525" t="n">
         <v>15</v>
@@ -14111,7 +14111,7 @@
         <v>17</v>
       </c>
       <c r="F526" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G526" t="n">
         <v>17</v>
@@ -14131,10 +14131,10 @@
         <v>3</v>
       </c>
       <c r="D527" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E527" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F527" t="n">
         <v>7.000000000000001</v>
@@ -14189,7 +14189,7 @@
         <v>5</v>
       </c>
       <c r="F529" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G529" t="n">
         <v>7.000000000000001</v>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="D530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="D531" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E531" t="n">
         <v>2</v>
@@ -14313,13 +14313,13 @@
         <v>12</v>
       </c>
       <c r="D534" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E534" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F534" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G534" t="n">
         <v>11</v>
@@ -14339,7 +14339,7 @@
         <v>9</v>
       </c>
       <c r="D535" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
@@ -14391,13 +14391,13 @@
         <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E537" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F537" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G537" t="n">
         <v>11</v>
@@ -14449,7 +14449,7 @@
         <v>16</v>
       </c>
       <c r="F539" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G539" t="n">
         <v>17</v>
@@ -14472,10 +14472,10 @@
         <v>14</v>
       </c>
       <c r="E540" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F540" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G540" t="n">
         <v>12</v>
@@ -14524,7 +14524,7 @@
         <v>15</v>
       </c>
       <c r="E542" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F542" t="n">
         <v>15</v>
@@ -14550,10 +14550,10 @@
         <v>12</v>
       </c>
       <c r="E543" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F543" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G543" t="n">
         <v>10</v>
@@ -14579,7 +14579,7 @@
         <v>16</v>
       </c>
       <c r="F544" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G544" t="n">
         <v>16</v>
@@ -14599,13 +14599,13 @@
         <v>11</v>
       </c>
       <c r="D545" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E545" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F545" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G545" t="n">
         <v>9</v>
@@ -14625,13 +14625,13 @@
         <v>12</v>
       </c>
       <c r="D546" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E546" t="n">
         <v>14</v>
       </c>
       <c r="F546" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G546" t="n">
         <v>12</v>
@@ -14657,7 +14657,7 @@
         <v>16</v>
       </c>
       <c r="F547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G547" t="n">
         <v>17</v>
@@ -14683,7 +14683,7 @@
         <v>16</v>
       </c>
       <c r="F548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G548" t="n">
         <v>16</v>
@@ -14732,10 +14732,10 @@
         <v>11</v>
       </c>
       <c r="E550" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F550" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G550" t="n">
         <v>12</v>
@@ -14784,10 +14784,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E552" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F552" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G552" t="n">
         <v>7.000000000000001</v>
@@ -14810,10 +14810,10 @@
         <v>14</v>
       </c>
       <c r="E553" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F553" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G553" t="n">
         <v>11</v>
@@ -14839,7 +14839,7 @@
         <v>12</v>
       </c>
       <c r="F554" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G554" t="n">
         <v>10</v>
@@ -14917,7 +14917,7 @@
         <v>16</v>
       </c>
       <c r="F557" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G557" t="n">
         <v>16</v>
@@ -14937,13 +14937,13 @@
         <v>11</v>
       </c>
       <c r="D558" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E558" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F558" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G558" t="n">
         <v>8</v>
@@ -14969,7 +14969,7 @@
         <v>14</v>
       </c>
       <c r="F559" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G559" t="n">
         <v>14</v>
@@ -15018,10 +15018,10 @@
         <v>12</v>
       </c>
       <c r="E561" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F561" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G561" t="n">
         <v>10</v>
@@ -15044,16 +15044,16 @@
         <v>10</v>
       </c>
       <c r="E562" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F562" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G562" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="H562" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="563">
@@ -15070,7 +15070,7 @@
         <v>15</v>
       </c>
       <c r="E563" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F563" t="n">
         <v>15</v>
@@ -15099,7 +15099,7 @@
         <v>17</v>
       </c>
       <c r="F564" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G564" t="n">
         <v>17</v>
@@ -15119,7 +15119,7 @@
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E565" t="n">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>15</v>
       </c>
       <c r="F566" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G566" t="n">
         <v>13</v>
@@ -15174,7 +15174,7 @@
         <v>11</v>
       </c>
       <c r="E567" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F567" t="n">
         <v>12</v>
@@ -15197,7 +15197,7 @@
         <v>10</v>
       </c>
       <c r="D568" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E568" t="n">
         <v>9</v>
@@ -15226,10 +15226,10 @@
         <v>4</v>
       </c>
       <c r="E569" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F569" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G569" t="n">
         <v>5</v>
@@ -15275,7 +15275,7 @@
         <v>13</v>
       </c>
       <c r="D571" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -15333,7 +15333,7 @@
         <v>3</v>
       </c>
       <c r="F573" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G573" t="n">
         <v>4</v>
@@ -15353,13 +15353,13 @@
         <v>4</v>
       </c>
       <c r="D574" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E574" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F574" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G574" t="n">
         <v>7.000000000000001</v>
@@ -15379,13 +15379,13 @@
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E575" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F575" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G575" t="n">
         <v>11</v>
@@ -15405,7 +15405,7 @@
         <v>2</v>
       </c>
       <c r="D576" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E576" t="n">
         <v>3</v>
@@ -15437,7 +15437,7 @@
         <v>14</v>
       </c>
       <c r="F577" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G577" t="n">
         <v>12</v>
@@ -15460,10 +15460,10 @@
         <v>3</v>
       </c>
       <c r="E578" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F578" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G578" t="n">
         <v>4</v>
@@ -15567,7 +15567,7 @@
         <v>16</v>
       </c>
       <c r="F582" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G582" t="n">
         <v>15</v>
@@ -15587,13 +15587,13 @@
         <v>15</v>
       </c>
       <c r="D583" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E583" t="n">
         <v>16</v>
       </c>
       <c r="F583" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G583" t="n">
         <v>15</v>
@@ -15613,13 +15613,13 @@
         <v>13</v>
       </c>
       <c r="D584" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
       </c>
       <c r="F584" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G584" t="n">
         <v>11</v>
@@ -15691,13 +15691,13 @@
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E587" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F587" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G587" t="n">
         <v>11</v>
@@ -15723,7 +15723,7 @@
         <v>15</v>
       </c>
       <c r="F588" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G588" t="n">
         <v>14</v>
@@ -15749,7 +15749,7 @@
         <v>16</v>
       </c>
       <c r="F589" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G589" t="n">
         <v>17</v>
@@ -15769,7 +15769,7 @@
         <v>5</v>
       </c>
       <c r="D590" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E590" t="n">
         <v>9</v>
@@ -15795,10 +15795,10 @@
         <v>13</v>
       </c>
       <c r="D591" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E591" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F591" t="n">
         <v>12</v>
@@ -15847,10 +15847,10 @@
         <v>5</v>
       </c>
       <c r="D593" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E593" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F593" t="n">
         <v>12</v>
@@ -15879,7 +15879,7 @@
         <v>11</v>
       </c>
       <c r="F594" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G594" t="n">
         <v>11</v>
@@ -15899,13 +15899,13 @@
         <v>9</v>
       </c>
       <c r="D595" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E595" t="n">
         <v>6</v>
       </c>
       <c r="F595" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G595" t="n">
         <v>7.000000000000001</v>
@@ -15925,13 +15925,13 @@
         <v>4</v>
       </c>
       <c r="D596" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
       </c>
       <c r="F596" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G596" t="n">
         <v>6</v>
@@ -15951,13 +15951,13 @@
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E597" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F597" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G597" t="n">
         <v>11</v>
@@ -15983,7 +15983,7 @@
         <v>13</v>
       </c>
       <c r="F598" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G598" t="n">
         <v>12</v>
@@ -16003,7 +16003,7 @@
         <v>9</v>
       </c>
       <c r="D599" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -16055,13 +16055,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D601" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E601" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F601" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G601" t="n">
         <v>8</v>
@@ -16139,7 +16139,7 @@
         <v>16</v>
       </c>
       <c r="F604" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G604" t="n">
         <v>17</v>
@@ -16165,7 +16165,7 @@
         <v>16</v>
       </c>
       <c r="F605" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G605" t="n">
         <v>15</v>
@@ -16188,7 +16188,7 @@
         <v>6</v>
       </c>
       <c r="E606" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F606" t="n">
         <v>7.000000000000001</v>
@@ -16211,13 +16211,13 @@
         <v>12</v>
       </c>
       <c r="D607" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E607" t="n">
         <v>10</v>
       </c>
       <c r="F607" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G607" t="n">
         <v>9</v>
@@ -16243,7 +16243,7 @@
         <v>11</v>
       </c>
       <c r="F608" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G608" t="n">
         <v>10</v>
@@ -16269,7 +16269,7 @@
         <v>16</v>
       </c>
       <c r="F609" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G609" t="n">
         <v>17</v>
@@ -16289,10 +16289,10 @@
         <v>2</v>
       </c>
       <c r="D610" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E610" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F610" t="n">
         <v>7.000000000000001</v>
@@ -16367,13 +16367,13 @@
         <v>10</v>
       </c>
       <c r="D613" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
       </c>
       <c r="F613" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G613" t="n">
         <v>8</v>
@@ -16393,13 +16393,13 @@
         <v>4</v>
       </c>
       <c r="D614" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E614" t="n">
         <v>3</v>
       </c>
       <c r="F614" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G614" t="n">
         <v>5</v>
@@ -16445,13 +16445,13 @@
         <v>8</v>
       </c>
       <c r="D616" t="n">
+        <v>8</v>
+      </c>
+      <c r="E616" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="E616" t="n">
-        <v>8</v>
-      </c>
       <c r="F616" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G616" t="n">
         <v>8</v>
@@ -16471,7 +16471,7 @@
         <v>11</v>
       </c>
       <c r="D617" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E617" t="n">
         <v>12</v>
@@ -16497,7 +16497,7 @@
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E618" t="n">
         <v>12</v>
@@ -16529,7 +16529,7 @@
         <v>11</v>
       </c>
       <c r="F619" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G619" t="n">
         <v>11</v>
@@ -16552,10 +16552,10 @@
         <v>14</v>
       </c>
       <c r="E620" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F620" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G620" t="n">
         <v>14</v>
@@ -16578,7 +16578,7 @@
         <v>13</v>
       </c>
       <c r="E621" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F621" t="n">
         <v>13</v>
@@ -16627,7 +16627,7 @@
         <v>13</v>
       </c>
       <c r="D623" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E623" t="n">
         <v>15</v>
@@ -16659,7 +16659,7 @@
         <v>15</v>
       </c>
       <c r="F624" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G624" t="n">
         <v>14</v>
@@ -16705,10 +16705,10 @@
         <v>12</v>
       </c>
       <c r="D626" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E626" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F626" t="n">
         <v>12</v>
@@ -16731,13 +16731,13 @@
         <v>0</v>
       </c>
       <c r="D627" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
       </c>
       <c r="F627" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G627" t="n">
         <v>4</v>
@@ -16757,7 +16757,7 @@
         <v>12</v>
       </c>
       <c r="D628" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E628" t="n">
         <v>10</v>
@@ -16786,10 +16786,10 @@
         <v>13</v>
       </c>
       <c r="E629" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F629" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G629" t="n">
         <v>11</v>
@@ -16815,7 +16815,7 @@
         <v>9</v>
       </c>
       <c r="F630" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G630" t="n">
         <v>9</v>
@@ -16841,7 +16841,7 @@
         <v>4</v>
       </c>
       <c r="F631" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G631" t="n">
         <v>6</v>
@@ -16861,13 +16861,13 @@
         <v>13</v>
       </c>
       <c r="D632" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E632" t="n">
         <v>12</v>
       </c>
       <c r="F632" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G632" t="n">
         <v>12</v>
@@ -16887,13 +16887,13 @@
         <v>16</v>
       </c>
       <c r="D633" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E633" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F633" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G633" t="n">
         <v>14</v>
@@ -16919,7 +16919,7 @@
         <v>11</v>
       </c>
       <c r="F634" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G634" t="n">
         <v>11</v>
@@ -16939,7 +16939,7 @@
         <v>9</v>
       </c>
       <c r="D635" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E635" t="n">
         <v>12</v>
@@ -16991,7 +16991,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D637" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E637" t="n">
         <v>12</v>
@@ -17023,7 +17023,7 @@
         <v>9</v>
       </c>
       <c r="F638" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G638" t="n">
         <v>9</v>
@@ -17069,13 +17069,13 @@
         <v>14</v>
       </c>
       <c r="D640" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E640" t="n">
         <v>15</v>
       </c>
       <c r="F640" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G640" t="n">
         <v>15</v>
@@ -17095,13 +17095,13 @@
         <v>10</v>
       </c>
       <c r="D641" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
       </c>
       <c r="F641" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G641" t="n">
         <v>6</v>
@@ -17121,7 +17121,7 @@
         <v>8</v>
       </c>
       <c r="D642" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -17153,7 +17153,7 @@
         <v>15</v>
       </c>
       <c r="F643" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G643" t="n">
         <v>15</v>
@@ -17179,7 +17179,7 @@
         <v>12</v>
       </c>
       <c r="F644" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G644" t="n">
         <v>12</v>
@@ -17202,7 +17202,7 @@
         <v>15</v>
       </c>
       <c r="E645" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F645" t="n">
         <v>15</v>
@@ -17231,7 +17231,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F646" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G646" t="n">
         <v>8</v>
@@ -17254,13 +17254,13 @@
         <v>12</v>
       </c>
       <c r="E647" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F647" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G647" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H647" t="n">
         <v>10</v>
@@ -17283,7 +17283,7 @@
         <v>14</v>
       </c>
       <c r="F648" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G648" t="n">
         <v>12</v>
@@ -17306,10 +17306,10 @@
         <v>14</v>
       </c>
       <c r="E649" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F649" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G649" t="n">
         <v>12</v>
@@ -17329,13 +17329,13 @@
         <v>15</v>
       </c>
       <c r="D650" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E650" t="n">
         <v>16</v>
       </c>
       <c r="F650" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G650" t="n">
         <v>16</v>
@@ -17410,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F653" t="n">
         <v>1</v>
@@ -17433,7 +17433,7 @@
         <v>8</v>
       </c>
       <c r="D654" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -17459,13 +17459,13 @@
         <v>16</v>
       </c>
       <c r="D655" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E655" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F655" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G655" t="n">
         <v>16</v>
@@ -17485,13 +17485,13 @@
         <v>9</v>
       </c>
       <c r="D656" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E656" t="n">
         <v>10</v>
       </c>
       <c r="F656" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G656" t="n">
         <v>10</v>
@@ -17511,13 +17511,13 @@
         <v>14</v>
       </c>
       <c r="D657" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E657" t="n">
         <v>15</v>
       </c>
       <c r="F657" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G657" t="n">
         <v>16</v>
@@ -17540,10 +17540,10 @@
         <v>11</v>
       </c>
       <c r="E658" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F658" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G658" t="n">
         <v>10</v>
@@ -17563,13 +17563,13 @@
         <v>13</v>
       </c>
       <c r="D659" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
       </c>
       <c r="F659" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G659" t="n">
         <v>11</v>
@@ -17589,13 +17589,13 @@
         <v>11</v>
       </c>
       <c r="D660" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E660" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F660" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G660" t="n">
         <v>10</v>
@@ -17615,13 +17615,13 @@
         <v>15</v>
       </c>
       <c r="D661" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E661" t="n">
         <v>15</v>
       </c>
       <c r="F661" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G661" t="n">
         <v>14</v>
@@ -17667,13 +17667,13 @@
         <v>6</v>
       </c>
       <c r="D663" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E663" t="n">
         <v>6</v>
       </c>
       <c r="F663" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G663" t="n">
         <v>6</v>
@@ -17696,7 +17696,7 @@
         <v>3</v>
       </c>
       <c r="E664" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F664" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>5</v>
       </c>
       <c r="H664" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="665">
@@ -17725,7 +17725,7 @@
         <v>10</v>
       </c>
       <c r="F665" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G665" t="n">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>12</v>
       </c>
       <c r="F667" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G667" t="n">
         <v>11</v>
@@ -17797,13 +17797,13 @@
         <v>13</v>
       </c>
       <c r="D668" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
       </c>
       <c r="F668" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G668" t="n">
         <v>12</v>
@@ -17823,13 +17823,13 @@
         <v>14</v>
       </c>
       <c r="D669" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
       </c>
       <c r="F669" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G669" t="n">
         <v>12</v>
@@ -17901,7 +17901,7 @@
         <v>10</v>
       </c>
       <c r="D672" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -17927,13 +17927,13 @@
         <v>15</v>
       </c>
       <c r="D673" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E673" t="n">
         <v>16</v>
       </c>
       <c r="F673" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G673" t="n">
         <v>16</v>
@@ -17979,7 +17979,7 @@
         <v>13</v>
       </c>
       <c r="D675" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E675" t="n">
         <v>12</v>
@@ -18005,7 +18005,7 @@
         <v>10</v>
       </c>
       <c r="D676" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E676" t="n">
         <v>14</v>
@@ -18057,13 +18057,13 @@
         <v>10</v>
       </c>
       <c r="D678" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E678" t="n">
         <v>10</v>
       </c>
       <c r="F678" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G678" t="n">
         <v>10</v>
@@ -18083,10 +18083,10 @@
         <v>11</v>
       </c>
       <c r="D679" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E679" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F679" t="n">
         <v>11</v>
@@ -18109,7 +18109,7 @@
         <v>10</v>
       </c>
       <c r="D680" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E680" t="n">
         <v>12</v>
@@ -18141,7 +18141,7 @@
         <v>13</v>
       </c>
       <c r="F681" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G681" t="n">
         <v>11</v>
@@ -18193,7 +18193,7 @@
         <v>11</v>
       </c>
       <c r="F683" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G683" t="n">
         <v>11</v>
@@ -18213,13 +18213,13 @@
         <v>13</v>
       </c>
       <c r="D684" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
       </c>
       <c r="F684" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G684" t="n">
         <v>13</v>
@@ -18297,7 +18297,7 @@
         <v>15</v>
       </c>
       <c r="F687" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G687" t="n">
         <v>15</v>
@@ -18317,13 +18317,13 @@
         <v>15</v>
       </c>
       <c r="D688" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E688" t="n">
         <v>14</v>
       </c>
       <c r="F688" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G688" t="n">
         <v>13</v>
@@ -18349,7 +18349,7 @@
         <v>5</v>
       </c>
       <c r="F689" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G689" t="n">
         <v>5</v>
@@ -18369,7 +18369,7 @@
         <v>13</v>
       </c>
       <c r="D690" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -18395,7 +18395,7 @@
         <v>11</v>
       </c>
       <c r="D691" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -18453,7 +18453,7 @@
         <v>6</v>
       </c>
       <c r="F693" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G693" t="n">
         <v>5</v>
@@ -18476,10 +18476,10 @@
         <v>9</v>
       </c>
       <c r="E694" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F694" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G694" t="n">
         <v>11</v>
@@ -18499,13 +18499,13 @@
         <v>13</v>
       </c>
       <c r="D695" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
       </c>
       <c r="F695" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G695" t="n">
         <v>11</v>
@@ -18580,10 +18580,10 @@
         <v>14</v>
       </c>
       <c r="E698" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F698" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G698" t="n">
         <v>13</v>
@@ -18603,13 +18603,13 @@
         <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E699" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F699" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G699" t="n">
         <v>9</v>
@@ -18629,7 +18629,7 @@
         <v>14</v>
       </c>
       <c r="D700" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E700" t="n">
         <v>14</v>
@@ -18655,13 +18655,13 @@
         <v>16</v>
       </c>
       <c r="D701" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E701" t="n">
         <v>16</v>
       </c>
       <c r="F701" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G701" t="n">
         <v>16</v>
@@ -18681,10 +18681,10 @@
         <v>3</v>
       </c>
       <c r="D702" t="n">
+        <v>3</v>
+      </c>
+      <c r="E702" t="n">
         <v>4</v>
-      </c>
-      <c r="E702" t="n">
-        <v>5</v>
       </c>
       <c r="F702" t="n">
         <v>1</v>
@@ -18713,7 +18713,7 @@
         <v>6</v>
       </c>
       <c r="F703" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G703" t="n">
         <v>6</v>
@@ -18762,7 +18762,7 @@
         <v>15</v>
       </c>
       <c r="E705" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F705" t="n">
         <v>15</v>
@@ -18791,7 +18791,7 @@
         <v>12</v>
       </c>
       <c r="F706" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G706" t="n">
         <v>11</v>
@@ -18811,13 +18811,13 @@
         <v>13</v>
       </c>
       <c r="D707" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E707" t="n">
         <v>14</v>
       </c>
       <c r="F707" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G707" t="n">
         <v>13</v>
@@ -18837,13 +18837,13 @@
         <v>11</v>
       </c>
       <c r="D708" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
       </c>
       <c r="F708" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G708" t="n">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>14</v>
       </c>
       <c r="F709" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G709" t="n">
         <v>12</v>
@@ -18889,13 +18889,13 @@
         <v>9</v>
       </c>
       <c r="D710" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E710" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F710" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G710" t="n">
         <v>10</v>
@@ -18915,10 +18915,10 @@
         <v>14</v>
       </c>
       <c r="D711" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E711" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F711" t="n">
         <v>11</v>
@@ -18967,7 +18967,7 @@
         <v>11</v>
       </c>
       <c r="D713" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E713" t="n">
         <v>12</v>
@@ -18993,13 +18993,13 @@
         <v>11</v>
       </c>
       <c r="D714" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E714" t="n">
         <v>12</v>
       </c>
       <c r="F714" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G714" t="n">
         <v>10</v>
@@ -19025,7 +19025,7 @@
         <v>8</v>
       </c>
       <c r="F715" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G715" t="n">
         <v>8</v>
@@ -19045,7 +19045,7 @@
         <v>12</v>
       </c>
       <c r="D716" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E716" t="n">
         <v>14</v>
@@ -19071,7 +19071,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D717" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E717" t="n">
         <v>12</v>
@@ -19100,10 +19100,10 @@
         <v>14</v>
       </c>
       <c r="E718" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F718" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G718" t="n">
         <v>12</v>
@@ -19129,7 +19129,7 @@
         <v>8</v>
       </c>
       <c r="F719" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="F723" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G723" t="n">
         <v>2</v>
@@ -19256,10 +19256,10 @@
         <v>8</v>
       </c>
       <c r="E724" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F724" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G724" t="n">
         <v>8</v>
@@ -19279,13 +19279,13 @@
         <v>9</v>
       </c>
       <c r="D725" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E725" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="F725" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G725" t="n">
         <v>8</v>
@@ -19311,7 +19311,7 @@
         <v>12</v>
       </c>
       <c r="F726" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G726" t="n">
         <v>10</v>
@@ -19331,7 +19331,7 @@
         <v>13</v>
       </c>
       <c r="D727" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E727" t="n">
         <v>14</v>
@@ -19363,7 +19363,7 @@
         <v>16</v>
       </c>
       <c r="F728" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G728" t="n">
         <v>15</v>
@@ -19389,7 +19389,7 @@
         <v>16</v>
       </c>
       <c r="F729" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G729" t="n">
         <v>17</v>
@@ -19415,7 +19415,7 @@
         <v>11</v>
       </c>
       <c r="F730" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G730" t="n">
         <v>11</v>
@@ -19438,7 +19438,7 @@
         <v>13</v>
       </c>
       <c r="E731" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F731" t="n">
         <v>13</v>
@@ -19490,10 +19490,10 @@
         <v>5</v>
       </c>
       <c r="E733" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F733" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G733" t="n">
         <v>6</v>
@@ -19571,7 +19571,7 @@
         <v>12</v>
       </c>
       <c r="F736" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G736" t="n">
         <v>9</v>
@@ -19597,7 +19597,7 @@
         <v>1</v>
       </c>
       <c r="F737" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G737" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         <v>11</v>
       </c>
       <c r="F741" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G741" t="n">
         <v>11</v>
@@ -19727,7 +19727,7 @@
         <v>14</v>
       </c>
       <c r="F742" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G742" t="n">
         <v>14</v>
@@ -19750,7 +19750,7 @@
         <v>15</v>
       </c>
       <c r="E743" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F743" t="n">
         <v>15</v>
@@ -19805,7 +19805,7 @@
         <v>17</v>
       </c>
       <c r="F745" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G745" t="n">
         <v>18</v>
@@ -19831,7 +19831,7 @@
         <v>0</v>
       </c>
       <c r="F746" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -19854,7 +19854,7 @@
         <v>11</v>
       </c>
       <c r="E747" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F747" t="n">
         <v>12</v>
@@ -19877,10 +19877,10 @@
         <v>5</v>
       </c>
       <c r="D748" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E748" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F748" t="n">
         <v>1</v>
@@ -19909,7 +19909,7 @@
         <v>9</v>
       </c>
       <c r="F749" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G749" t="n">
         <v>9</v>
@@ -19932,10 +19932,10 @@
         <v>11</v>
       </c>
       <c r="E750" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F750" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G750" t="n">
         <v>12</v>
@@ -19955,13 +19955,13 @@
         <v>6</v>
       </c>
       <c r="D751" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="E751" t="n">
         <v>6</v>
       </c>
       <c r="F751" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G751" t="n">
         <v>6</v>
@@ -19987,7 +19987,7 @@
         <v>13</v>
       </c>
       <c r="F752" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G752" t="n">
         <v>12</v>
@@ -20013,7 +20013,7 @@
         <v>8</v>
       </c>
       <c r="F753" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G753" t="n">
         <v>10</v>
@@ -20039,7 +20039,7 @@
         <v>16</v>
       </c>
       <c r="F754" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G754" t="n">
         <v>16</v>
@@ -20091,7 +20091,7 @@
         <v>14</v>
       </c>
       <c r="F756" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G756" t="n">
         <v>12</v>
@@ -20143,7 +20143,7 @@
         <v>10</v>
       </c>
       <c r="F758" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20195,7 +20195,7 @@
         <v>13</v>
       </c>
       <c r="F760" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G760" t="n">
         <v>11</v>
@@ -20215,7 +20215,7 @@
         <v>12</v>
       </c>
       <c r="D761" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E761" t="n">
         <v>8</v>
@@ -20241,7 +20241,7 @@
         <v>9</v>
       </c>
       <c r="D762" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E762" t="n">
         <v>3</v>
@@ -20267,13 +20267,13 @@
         <v>12</v>
       </c>
       <c r="D763" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E763" t="n">
         <v>10</v>
       </c>
       <c r="F763" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G763" t="n">
         <v>11</v>
@@ -20299,7 +20299,7 @@
         <v>9</v>
       </c>
       <c r="F764" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G764" t="n">
         <v>9</v>
@@ -20322,7 +20322,7 @@
         <v>11</v>
       </c>
       <c r="E765" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F765" t="n">
         <v>12</v>
@@ -20345,7 +20345,7 @@
         <v>15</v>
       </c>
       <c r="D766" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E766" t="n">
         <v>15</v>
@@ -20397,10 +20397,10 @@
         <v>13</v>
       </c>
       <c r="D768" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E768" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F768" t="n">
         <v>15</v>
@@ -20429,7 +20429,7 @@
         <v>14</v>
       </c>
       <c r="F769" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G769" t="n">
         <v>12</v>
@@ -20475,13 +20475,13 @@
         <v>12</v>
       </c>
       <c r="D771" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E771" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F771" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G771" t="n">
         <v>10</v>
@@ -20507,7 +20507,7 @@
         <v>15</v>
       </c>
       <c r="F772" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G772" t="n">
         <v>13</v>
@@ -20527,13 +20527,13 @@
         <v>9</v>
       </c>
       <c r="D773" t="n">
+        <v>4</v>
+      </c>
+      <c r="E773" t="n">
         <v>5</v>
       </c>
-      <c r="E773" t="n">
-        <v>6</v>
-      </c>
       <c r="F773" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G773" t="n">
         <v>7.000000000000001</v>
@@ -20559,7 +20559,7 @@
         <v>10</v>
       </c>
       <c r="F774" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G774" t="n">
         <v>10</v>
@@ -20611,7 +20611,7 @@
         <v>12</v>
       </c>
       <c r="F776" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G776" t="n">
         <v>11</v>
@@ -20689,7 +20689,7 @@
         <v>6</v>
       </c>
       <c r="F779" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G779" t="n">
         <v>5</v>
@@ -20715,7 +20715,7 @@
         <v>11</v>
       </c>
       <c r="F780" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G780" t="n">
         <v>9</v>
@@ -20732,16 +20732,16 @@
         <v>3</v>
       </c>
       <c r="C781" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D781" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
       </c>
       <c r="F781" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G781" t="n">
         <v>8</v>
@@ -20761,13 +20761,13 @@
         <v>0</v>
       </c>
       <c r="D782" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E782" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F782" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G782" t="n">
         <v>6</v>
@@ -20790,10 +20790,10 @@
         <v>14</v>
       </c>
       <c r="E783" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F783" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G783" t="n">
         <v>13</v>
@@ -20845,7 +20845,7 @@
         <v>13</v>
       </c>
       <c r="F785" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G785" t="n">
         <v>11</v>
@@ -20865,13 +20865,13 @@
         <v>10</v>
       </c>
       <c r="D786" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E786" t="n">
         <v>8</v>
       </c>
       <c r="F786" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G786" t="n">
         <v>8</v>
@@ -20897,7 +20897,7 @@
         <v>16</v>
       </c>
       <c r="F787" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G787" t="n">
         <v>16</v>
@@ -20920,16 +20920,16 @@
         <v>9</v>
       </c>
       <c r="E788" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F788" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G788" t="n">
         <v>10</v>
       </c>
       <c r="H788" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="789">
@@ -20949,7 +20949,7 @@
         <v>14</v>
       </c>
       <c r="F789" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G789" t="n">
         <v>13</v>
@@ -20972,7 +20972,7 @@
         <v>3</v>
       </c>
       <c r="E790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F790" t="n">
         <v>1</v>
@@ -20995,13 +20995,13 @@
         <v>1</v>
       </c>
       <c r="D791" t="n">
+        <v>2</v>
+      </c>
+      <c r="E791" t="n">
+        <v>2</v>
+      </c>
+      <c r="F791" t="n">
         <v>3</v>
-      </c>
-      <c r="E791" t="n">
-        <v>1</v>
-      </c>
-      <c r="F791" t="n">
-        <v>1</v>
       </c>
       <c r="G791" t="n">
         <v>3</v>
@@ -21021,13 +21021,13 @@
         <v>12</v>
       </c>
       <c r="D792" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E792" t="n">
         <v>10</v>
       </c>
       <c r="F792" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G792" t="n">
         <v>10</v>
@@ -21053,7 +21053,7 @@
         <v>15</v>
       </c>
       <c r="F793" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G793" t="n">
         <v>14</v>
@@ -21105,7 +21105,7 @@
         <v>14</v>
       </c>
       <c r="F795" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G795" t="n">
         <v>12</v>
@@ -21125,7 +21125,7 @@
         <v>13</v>
       </c>
       <c r="D796" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E796" t="n">
         <v>14</v>
@@ -21180,7 +21180,7 @@
         <v>11</v>
       </c>
       <c r="E798" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F798" t="n">
         <v>12</v>
@@ -21209,7 +21209,7 @@
         <v>13</v>
       </c>
       <c r="F799" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G799" t="n">
         <v>12</v>
@@ -21261,7 +21261,7 @@
         <v>6</v>
       </c>
       <c r="F801" t="n">
-        <v>7.000000000000001</v>
+        <v>12</v>
       </c>
       <c r="G801" t="n">
         <v>5</v>
@@ -21313,7 +21313,7 @@
         <v>17</v>
       </c>
       <c r="F803" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G803" t="n">
         <v>18</v>
@@ -21336,10 +21336,10 @@
         <v>8</v>
       </c>
       <c r="E804" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F804" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G804" t="n">
         <v>10</v>
@@ -21391,7 +21391,7 @@
         <v>14</v>
       </c>
       <c r="F806" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G806" t="n">
         <v>12</v>
@@ -21411,13 +21411,13 @@
         <v>12</v>
       </c>
       <c r="D807" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E807" t="n">
         <v>12</v>
       </c>
       <c r="F807" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G807" t="n">
         <v>13</v>
@@ -21463,13 +21463,13 @@
         <v>13</v>
       </c>
       <c r="D809" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E809" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F809" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G809" t="n">
         <v>12</v>
@@ -21495,7 +21495,7 @@
         <v>16</v>
       </c>
       <c r="F810" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G810" t="n">
         <v>15</v>
@@ -21521,7 +21521,7 @@
         <v>17</v>
       </c>
       <c r="F811" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G811" t="n">
         <v>17</v>
@@ -21541,7 +21541,7 @@
         <v>12</v>
       </c>
       <c r="D812" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E812" t="n">
         <v>15</v>
@@ -21567,13 +21567,13 @@
         <v>12</v>
       </c>
       <c r="D813" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
       </c>
       <c r="F813" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G813" t="n">
         <v>13</v>
@@ -21599,7 +21599,7 @@
         <v>9</v>
       </c>
       <c r="F814" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G814" t="n">
         <v>9</v>
@@ -21619,10 +21619,10 @@
         <v>8</v>
       </c>
       <c r="D815" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E815" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F815" t="n">
         <v>13</v>
@@ -21645,13 +21645,13 @@
         <v>15</v>
       </c>
       <c r="D816" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E816" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F816" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G816" t="n">
         <v>11</v>
@@ -21674,10 +21674,10 @@
         <v>8</v>
       </c>
       <c r="E817" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F817" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G817" t="n">
         <v>8</v>
@@ -21697,13 +21697,13 @@
         <v>11</v>
       </c>
       <c r="D818" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E818" t="n">
         <v>10</v>
       </c>
       <c r="F818" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G818" t="n">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>10</v>
       </c>
       <c r="F820" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G820" t="n">
         <v>9</v>
@@ -21778,7 +21778,7 @@
         <v>16</v>
       </c>
       <c r="E821" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F821" t="n">
         <v>15</v>
@@ -21801,10 +21801,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D822" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E822" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F822" t="n">
         <v>13</v>
@@ -21833,7 +21833,7 @@
         <v>15</v>
       </c>
       <c r="F823" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G823" t="n">
         <v>16</v>
@@ -21885,7 +21885,7 @@
         <v>4</v>
       </c>
       <c r="F825" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G825" t="n">
         <v>5</v>
@@ -21957,13 +21957,13 @@
         <v>12</v>
       </c>
       <c r="D828" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
       </c>
       <c r="F828" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G828" t="n">
         <v>12</v>
@@ -21983,7 +21983,7 @@
         <v>13</v>
       </c>
       <c r="D829" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E829" t="n">
         <v>14</v>
@@ -22061,13 +22061,13 @@
         <v>14</v>
       </c>
       <c r="D832" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E832" t="n">
         <v>16</v>
       </c>
       <c r="F832" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G832" t="n">
         <v>16</v>
@@ -22087,13 +22087,13 @@
         <v>13</v>
       </c>
       <c r="D833" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
       </c>
       <c r="F833" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G833" t="n">
         <v>11</v>
@@ -22113,13 +22113,13 @@
         <v>8</v>
       </c>
       <c r="D834" t="n">
+        <v>6</v>
+      </c>
+      <c r="E834" t="n">
         <v>5</v>
       </c>
-      <c r="E834" t="n">
+      <c r="F834" t="n">
         <v>6</v>
-      </c>
-      <c r="F834" t="n">
-        <v>5</v>
       </c>
       <c r="G834" t="n">
         <v>7.000000000000001</v>
@@ -22145,7 +22145,7 @@
         <v>14</v>
       </c>
       <c r="F835" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G835" t="n">
         <v>13</v>
@@ -22165,7 +22165,7 @@
         <v>8</v>
       </c>
       <c r="D836" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E836" t="n">
         <v>12</v>
@@ -22194,10 +22194,10 @@
         <v>6</v>
       </c>
       <c r="E837" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F837" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G837" t="n">
         <v>10</v>
@@ -22249,7 +22249,7 @@
         <v>4</v>
       </c>
       <c r="F839" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G839" t="n">
         <v>6</v>
@@ -22324,7 +22324,7 @@
         <v>15</v>
       </c>
       <c r="E842" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F842" t="n">
         <v>15</v>
@@ -22347,13 +22347,13 @@
         <v>3</v>
       </c>
       <c r="D843" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
       </c>
       <c r="F843" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G843" t="n">
         <v>4</v>
@@ -22399,13 +22399,13 @@
         <v>9</v>
       </c>
       <c r="D845" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
       </c>
       <c r="F845" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G845" t="n">
         <v>10</v>
@@ -22425,10 +22425,10 @@
         <v>0</v>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F846" t="n">
         <v>1</v>
@@ -22454,10 +22454,10 @@
         <v>11</v>
       </c>
       <c r="E847" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F847" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G847" t="n">
         <v>11</v>
@@ -22483,7 +22483,7 @@
         <v>17</v>
       </c>
       <c r="F848" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G848" t="n">
         <v>18</v>
@@ -22506,10 +22506,10 @@
         <v>14</v>
       </c>
       <c r="E849" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F849" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G849" t="n">
         <v>11</v>
@@ -22555,10 +22555,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D851" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E851" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F851" t="n">
         <v>15</v>
@@ -22613,7 +22613,7 @@
         <v>12</v>
       </c>
       <c r="F853" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G853" t="n">
         <v>11</v>
@@ -22659,13 +22659,13 @@
         <v>12</v>
       </c>
       <c r="D855" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E855" t="n">
         <v>12</v>
       </c>
       <c r="F855" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G855" t="n">
         <v>10</v>
@@ -22711,13 +22711,13 @@
         <v>10</v>
       </c>
       <c r="D857" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E857" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F857" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G857" t="n">
         <v>7.000000000000001</v>
@@ -22763,7 +22763,7 @@
         <v>14</v>
       </c>
       <c r="D859" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E859" t="n">
         <v>15</v>
@@ -22815,13 +22815,13 @@
         <v>5</v>
       </c>
       <c r="D861" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E861" t="n">
         <v>6</v>
       </c>
       <c r="F861" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G861" t="n">
         <v>6</v>
@@ -22844,10 +22844,10 @@
         <v>14</v>
       </c>
       <c r="E862" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F862" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G862" t="n">
         <v>9</v>
@@ -22870,10 +22870,10 @@
         <v>15</v>
       </c>
       <c r="E863" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F863" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G863" t="n">
         <v>14</v>
@@ -22896,10 +22896,10 @@
         <v>11</v>
       </c>
       <c r="E864" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F864" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G864" t="n">
         <v>12</v>
@@ -22945,7 +22945,7 @@
         <v>13</v>
       </c>
       <c r="D866" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E866" t="n">
         <v>14</v>
@@ -22971,10 +22971,10 @@
         <v>13</v>
       </c>
       <c r="D867" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E867" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F867" t="n">
         <v>15</v>
@@ -22997,13 +22997,13 @@
         <v>16</v>
       </c>
       <c r="D868" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E868" t="n">
         <v>16</v>
       </c>
       <c r="F868" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G868" t="n">
         <v>17</v>
@@ -23023,13 +23023,13 @@
         <v>6</v>
       </c>
       <c r="D869" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E869" t="n">
         <v>3</v>
       </c>
       <c r="F869" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G869" t="n">
         <v>3</v>
@@ -23052,7 +23052,7 @@
         <v>13</v>
       </c>
       <c r="E870" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F870" t="n">
         <v>13</v>
@@ -23081,7 +23081,7 @@
         <v>16</v>
       </c>
       <c r="F871" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G871" t="n">
         <v>15</v>
@@ -23107,7 +23107,7 @@
         <v>16</v>
       </c>
       <c r="F872" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G872" t="n">
         <v>14</v>
@@ -23130,10 +23130,10 @@
         <v>14</v>
       </c>
       <c r="E873" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F873" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G873" t="n">
         <v>11</v>
@@ -23153,13 +23153,13 @@
         <v>6</v>
       </c>
       <c r="D874" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E874" t="n">
         <v>3</v>
       </c>
       <c r="F874" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G874" t="n">
         <v>5</v>
@@ -23179,13 +23179,13 @@
         <v>8</v>
       </c>
       <c r="D875" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E875" t="n">
         <v>4</v>
       </c>
       <c r="F875" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G875" t="n">
         <v>5</v>
@@ -23208,10 +23208,10 @@
         <v>5</v>
       </c>
       <c r="E876" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F876" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G876" t="n">
         <v>7.000000000000001</v>
@@ -23237,7 +23237,7 @@
         <v>8</v>
       </c>
       <c r="F877" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G877" t="n">
         <v>9</v>
@@ -23257,13 +23257,13 @@
         <v>9</v>
       </c>
       <c r="D878" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E878" t="n">
         <v>11</v>
       </c>
       <c r="F878" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G878" t="n">
         <v>11</v>
@@ -23315,7 +23315,7 @@
         <v>14</v>
       </c>
       <c r="F880" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G880" t="n">
         <v>12</v>
@@ -23335,7 +23335,7 @@
         <v>11</v>
       </c>
       <c r="D881" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -23413,13 +23413,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E884" t="n">
         <v>11</v>
       </c>
       <c r="F884" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G884" t="n">
         <v>10</v>
@@ -23439,13 +23439,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D885" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E885" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F885" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23471,7 +23471,7 @@
         <v>13</v>
       </c>
       <c r="F886" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G886" t="n">
         <v>13</v>
@@ -23491,13 +23491,13 @@
         <v>3</v>
       </c>
       <c r="D887" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E887" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F887" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G887" t="n">
         <v>7.000000000000001</v>
@@ -23517,7 +23517,7 @@
         <v>13</v>
       </c>
       <c r="D888" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E888" t="n">
         <v>15</v>
@@ -23572,10 +23572,10 @@
         <v>14</v>
       </c>
       <c r="E890" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F890" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G890" t="n">
         <v>13</v>
@@ -23679,7 +23679,7 @@
         <v>11</v>
       </c>
       <c r="F894" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G894" t="n">
         <v>10</v>
@@ -23725,13 +23725,13 @@
         <v>9</v>
       </c>
       <c r="D896" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E896" t="n">
         <v>12</v>
       </c>
       <c r="F896" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G896" t="n">
         <v>9</v>
@@ -23780,7 +23780,7 @@
         <v>15</v>
       </c>
       <c r="E898" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F898" t="n">
         <v>15</v>
@@ -23806,7 +23806,7 @@
         <v>9</v>
       </c>
       <c r="E899" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F899" t="n">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>16</v>
       </c>
       <c r="F900" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G900" t="n">
         <v>15</v>
@@ -23855,7 +23855,7 @@
         <v>16</v>
       </c>
       <c r="D901" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E901" t="n">
         <v>15</v>
@@ -23887,7 +23887,7 @@
         <v>16</v>
       </c>
       <c r="F902" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G902" t="n">
         <v>15</v>
@@ -23913,7 +23913,7 @@
         <v>16</v>
       </c>
       <c r="F903" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G903" t="n">
         <v>16</v>
@@ -23936,10 +23936,10 @@
         <v>14</v>
       </c>
       <c r="E904" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F904" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G904" t="n">
         <v>12</v>
@@ -23962,7 +23962,7 @@
         <v>15</v>
       </c>
       <c r="E905" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F905" t="n">
         <v>15</v>
@@ -23985,13 +23985,13 @@
         <v>0</v>
       </c>
       <c r="D906" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
       </c>
       <c r="F906" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G906" t="n">
         <v>5</v>
@@ -24040,7 +24040,7 @@
         <v>15</v>
       </c>
       <c r="E908" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F908" t="n">
         <v>15</v>
@@ -24092,7 +24092,7 @@
         <v>16</v>
       </c>
       <c r="E910" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F910" t="n">
         <v>15</v>
@@ -24141,7 +24141,7 @@
         <v>16</v>
       </c>
       <c r="D912" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E912" t="n">
         <v>15</v>
@@ -24196,10 +24196,10 @@
         <v>16</v>
       </c>
       <c r="E914" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F914" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G914" t="n">
         <v>17</v>
@@ -24251,7 +24251,7 @@
         <v>16</v>
       </c>
       <c r="F916" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G916" t="n">
         <v>15</v>
@@ -24271,13 +24271,13 @@
         <v>13</v>
       </c>
       <c r="D917" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
       </c>
       <c r="F917" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G917" t="n">
         <v>11</v>
@@ -24297,13 +24297,13 @@
         <v>13</v>
       </c>
       <c r="D918" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E918" t="n">
         <v>11</v>
       </c>
       <c r="F918" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G918" t="n">
         <v>9</v>
@@ -24323,13 +24323,13 @@
         <v>8</v>
       </c>
       <c r="D919" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E919" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F919" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G919" t="n">
         <v>7.000000000000001</v>
@@ -24352,10 +24352,10 @@
         <v>10</v>
       </c>
       <c r="E920" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F920" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G920" t="n">
         <v>9</v>
@@ -24375,13 +24375,13 @@
         <v>12</v>
       </c>
       <c r="D921" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
       </c>
       <c r="F921" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G921" t="n">
         <v>12</v>
@@ -24401,13 +24401,13 @@
         <v>13</v>
       </c>
       <c r="D922" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
       </c>
       <c r="F922" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G922" t="n">
         <v>12</v>
@@ -24427,13 +24427,13 @@
         <v>15</v>
       </c>
       <c r="D923" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E923" t="n">
         <v>16</v>
       </c>
       <c r="F923" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G923" t="n">
         <v>15</v>
@@ -24453,13 +24453,13 @@
         <v>14</v>
       </c>
       <c r="D924" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E924" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F924" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G924" t="n">
         <v>13</v>
@@ -24485,7 +24485,7 @@
         <v>16</v>
       </c>
       <c r="F925" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G925" t="n">
         <v>15</v>
@@ -24505,7 +24505,7 @@
         <v>15</v>
       </c>
       <c r="D926" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E926" t="n">
         <v>15</v>
@@ -24531,7 +24531,7 @@
         <v>15</v>
       </c>
       <c r="D927" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E927" t="n">
         <v>15</v>
@@ -24563,7 +24563,7 @@
         <v>12</v>
       </c>
       <c r="F928" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G928" t="n">
         <v>11</v>
@@ -24641,7 +24641,7 @@
         <v>16</v>
       </c>
       <c r="F931" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G931" t="n">
         <v>17</v>
@@ -24661,7 +24661,7 @@
         <v>11</v>
       </c>
       <c r="D932" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E932" t="n">
         <v>11</v>
@@ -24690,10 +24690,10 @@
         <v>8</v>
       </c>
       <c r="E933" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F933" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G933" t="n">
         <v>8</v>
@@ -24716,7 +24716,7 @@
         <v>15</v>
       </c>
       <c r="E934" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F934" t="n">
         <v>15</v>
@@ -24742,10 +24742,10 @@
         <v>9</v>
       </c>
       <c r="E935" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F935" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G935" t="n">
         <v>5</v>
@@ -24771,7 +24771,7 @@
         <v>9</v>
       </c>
       <c r="F936" t="n">
-        <v>7.000000000000001</v>
+        <v>11</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24788,7 +24788,7 @@
         <v>11</v>
       </c>
       <c r="C937" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D937" t="n">
         <v>15</v>
@@ -24797,7 +24797,7 @@
         <v>15</v>
       </c>
       <c r="F937" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G937" t="n">
         <v>13</v>
@@ -24869,13 +24869,13 @@
         <v>11</v>
       </c>
       <c r="D940" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E940" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F940" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G940" t="n">
         <v>9</v>
@@ -24898,7 +24898,7 @@
         <v>15</v>
       </c>
       <c r="E941" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F941" t="n">
         <v>15</v>
@@ -24924,7 +24924,7 @@
         <v>13</v>
       </c>
       <c r="E942" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F942" t="n">
         <v>13</v>
@@ -24953,7 +24953,7 @@
         <v>17</v>
       </c>
       <c r="F943" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G943" t="n">
         <v>17</v>
@@ -25005,7 +25005,7 @@
         <v>1</v>
       </c>
       <c r="F945" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G945" t="n">
         <v>4</v>
@@ -25051,7 +25051,7 @@
         <v>10</v>
       </c>
       <c r="D947" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E947" t="n">
         <v>7.000000000000001</v>
@@ -25077,7 +25077,7 @@
         <v>1</v>
       </c>
       <c r="D948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E948" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>15</v>
       </c>
       <c r="E950" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F950" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G950" t="n">
         <v>14</v>
@@ -25161,7 +25161,7 @@
         <v>11</v>
       </c>
       <c r="F951" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G951" t="n">
         <v>10</v>
@@ -25181,13 +25181,13 @@
         <v>13</v>
       </c>
       <c r="D952" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E952" t="n">
         <v>12</v>
       </c>
       <c r="F952" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G952" t="n">
         <v>10</v>
@@ -25239,7 +25239,7 @@
         <v>12</v>
       </c>
       <c r="F954" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G954" t="n">
         <v>11</v>
@@ -25262,10 +25262,10 @@
         <v>14</v>
       </c>
       <c r="E955" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F955" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G955" t="n">
         <v>11</v>
@@ -25285,13 +25285,13 @@
         <v>11</v>
       </c>
       <c r="D956" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E956" t="n">
         <v>14</v>
       </c>
       <c r="F956" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G956" t="n">
         <v>12</v>
@@ -25343,7 +25343,7 @@
         <v>6</v>
       </c>
       <c r="F958" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G958" t="n">
         <v>7.000000000000001</v>
@@ -25363,13 +25363,13 @@
         <v>12</v>
       </c>
       <c r="D959" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E959" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F959" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G959" t="n">
         <v>12</v>
@@ -25421,7 +25421,7 @@
         <v>13</v>
       </c>
       <c r="F961" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G961" t="n">
         <v>12</v>
@@ -25444,10 +25444,10 @@
         <v>4</v>
       </c>
       <c r="E962" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F962" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G962" t="n">
         <v>4</v>
